--- a/data/prepared_data.xlsx
+++ b/data/prepared_data.xlsx
@@ -37,6 +37,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Death Rates in % by Year5" sheetId="29" state="visible" r:id="rId29"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5-Year Survival Rates5" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Death Rates in % by Year6" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5-Year Survival Rates6" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Death Rates in % by Year7" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36254,6 +36256,3640 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Borough</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>City of London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Barking and Dagenham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Bexley</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Brent</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>41</v>
+      </c>
+      <c r="O6" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>45</v>
+      </c>
+      <c r="O7" t="n">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Camden</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>41</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Croydon</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I9" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Ealing</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>41</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Enfield</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Greenwich</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>37</v>
+      </c>
+      <c r="C12" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>40</v>
+      </c>
+      <c r="M12" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Hackney</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>43</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Hammersmith and Fulham</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Haringey</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>42</v>
+      </c>
+      <c r="L15" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Harrow</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>43</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>45</v>
+      </c>
+      <c r="G16" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Havering</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>43</v>
+      </c>
+      <c r="C17" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41</v>
+      </c>
+      <c r="K17" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Hillingdon</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Hounslow</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Islington</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>41</v>
+      </c>
+      <c r="D20" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>39</v>
+      </c>
+      <c r="K20" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Kensington and Chelsea</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>38</v>
+      </c>
+      <c r="I21" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Kingston upon Thames</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>42</v>
+      </c>
+      <c r="J22" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>50</v>
+      </c>
+      <c r="M22" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Lambeth</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>39</v>
+      </c>
+      <c r="F23" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Lewisham</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41</v>
+      </c>
+      <c r="E24" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Merton</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>39</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>42</v>
+      </c>
+      <c r="K25" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="N25" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Newham</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>35</v>
+      </c>
+      <c r="G26" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>35</v>
+      </c>
+      <c r="J26" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>37</v>
+      </c>
+      <c r="O26" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Redbridge</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="M27" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Richmond upon Thames</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Southwark</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Sutton</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Tower Hamlets</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>41</v>
+      </c>
+      <c r="G31" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>35</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Waltham Forest</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>35</v>
+      </c>
+      <c r="L32" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Wandsworth</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Westminster</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>37</v>
+      </c>
+      <c r="K34" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>38</v>
+      </c>
+      <c r="O34" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Borough</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>City of London</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Barking and Dagenham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Barnet</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Bexley</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Brent</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Bromley</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Camden</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Croydon</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Ealing</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Enfield</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Greenwich</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Hackney</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Hammersmith and Fulham</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Haringey</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Harrow</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Havering</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Hillingdon</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Hounslow</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Islington</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="P20" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Kensington and Chelsea</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Kingston upon Thames</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Lambeth</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>13</v>
+      </c>
+      <c r="L23" t="n">
+        <v>16</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Lewisham</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Merton</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="P25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Newham</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="M26" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="P26" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Redbridge</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Richmond upon Thames</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L28" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>11</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Southwark</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="P29" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Sutton</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Tower Hamlets</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M31" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Waltham Forest</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Wandsworth</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>14</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Westminster</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
